--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_235.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_235.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,596 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1254237288135593</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[['C', 'G', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[('0:00:29.719863', '0:00:35.722222'), ('0:00:44.917324', '0:00:48.272607')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.236303', '0:00:12.162018'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(123.22, 126.88)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.374331550802139</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D', 'G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['D', 'G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:00:44.983424', '0:00:57.893718')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:28.800769', '0:00:46.169854')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06650570676031607</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'C#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['A', 'C#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[('0:00:50.732063', '0:00:57.045249')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:11.140340', '0:00:18.686825')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/6', 'C', 'C/7'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:min', 'A', 'A'], ['A', 'B', 'E']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.765827, 30.378072), (65.382154, 74.101247)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.351043, 46.272131), (44.310045, 50.196303)]</t>
+          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:05.208150', '0:00:11.035850')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.3, 30.46)]</t>
+          <t>[('0:00:21.080000', '0:00:24.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:05.780000', '0:00:12.600000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:00:52.420000', '0:01:01.260000'), ('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.820000', '0:00:38.820000'), ('0:00:36.520000', '0:00:38.280000'), ('0:00:09.260000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1068,137 +1086,86 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.44, 24.06)]</t>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.36, 5.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.84, 47.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
